--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65F828-22A4-1049-A54E-A314A6009E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776680FC-5DFE-435D-97F1-A69204562F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -108,13 +108,22 @@
   </si>
   <si>
     <t>iterate through array tracking the current and previous number. Check if consecutive.</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>increment left and right pointer until they meet comparing each character</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,23 +541,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="147.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="22.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="21">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -592,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.95" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -603,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="19.95" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -614,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="19.95" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -625,59 +634,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="19.95" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="19.95" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="17" ht="19.95" customHeight="1"/>
+    <row r="18" ht="19.95" customHeight="1"/>
+    <row r="19" ht="19.95" customHeight="1"/>
+    <row r="20" ht="19.95" customHeight="1"/>
+    <row r="21" ht="19.95" customHeight="1"/>
+    <row r="22" ht="19.95" customHeight="1"/>
+    <row r="23" ht="19.95" customHeight="1"/>
+    <row r="24" ht="19.95" customHeight="1"/>
+    <row r="25" ht="19.95" customHeight="1"/>
+    <row r="26" ht="19.95" customHeight="1"/>
+    <row r="27" ht="19.95" customHeight="1"/>
+    <row r="28" ht="19.95" customHeight="1"/>
+    <row r="29" ht="19.95" customHeight="1"/>
+    <row r="30" ht="19.95" customHeight="1"/>
+    <row r="31" ht="19.95" customHeight="1"/>
+    <row r="32" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65F828-22A4-1049-A54E-A314A6009E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07795C86-D2EE-CC4B-8918-26F21BB4F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>iterate through array tracking the current and previous number. Check if consecutive.</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>iterate through array simultaneously with left and right pointer, compare characters</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterate through array </t>
   </si>
 </sst>
 </file>
@@ -533,14 +548,14 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="147.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -548,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -592,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -603,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -614,7 +629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -625,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -636,7 +651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -647,20 +662,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07795C86-D2EE-CC4B-8918-26F21BB4F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1795303A-025A-46A2-8287-6C6061383224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="20160" yWindow="0" windowWidth="21120" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -122,14 +122,17 @@
     <t>3Sum</t>
   </si>
   <si>
-    <t xml:space="preserve">iterate through array </t>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>iterate through array alot two spaces right of i;find matching conditions usiing two pointers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,11 +173,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="16"/>
@@ -221,14 +219,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -547,23 +544,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -585,30 +582,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -618,8 +615,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" ht="24" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -629,90 +626,97 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" ht="24" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1"/>
+    <row r="15" spans="1:3" ht="24" customHeight="1"/>
+    <row r="16" spans="1:3" ht="24" customHeight="1"/>
+    <row r="17" ht="24" customHeight="1"/>
+    <row r="18" ht="24" customHeight="1"/>
+    <row r="19" ht="24" customHeight="1"/>
+    <row r="20" ht="24" customHeight="1"/>
+    <row r="21" ht="24" customHeight="1"/>
+    <row r="22" ht="24" customHeight="1"/>
+    <row r="23" ht="24" customHeight="1"/>
+    <row r="24" ht="24" customHeight="1"/>
+    <row r="25" ht="19.95" customHeight="1"/>
+    <row r="26" ht="19.95" customHeight="1"/>
+    <row r="27" ht="19.95" customHeight="1"/>
+    <row r="28" ht="19.95" customHeight="1"/>
+    <row r="29" ht="19.95" customHeight="1"/>
+    <row r="30" ht="19.95" customHeight="1"/>
+    <row r="31" ht="19.95" customHeight="1"/>
+    <row r="32" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1795303A-025A-46A2-8287-6C6061383224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEE702-8B54-414C-B855-DDA345631697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="0" windowWidth="21120" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -126,13 +126,31 @@
   </si>
   <si>
     <t>iterate through array alot two spaces right of i;find matching conditions usiing two pointers</t>
+  </si>
+  <si>
+    <t>iterate through array using pointers;keeping track of max area calculate new max area</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Best Time to Buy And Sell Stock</t>
+  </si>
+  <si>
+    <t>track max profit ; update profit by checking against current max profit</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>track unique characters using a hashset;track longest substring count update by checking against self using hashset length; if already in remove increment left counter.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +202,16 @@
     <font>
       <sz val="16"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -219,13 +247,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -544,23 +574,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1">
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -582,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -593,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -604,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -615,7 +645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1">
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -626,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -637,7 +667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -648,7 +678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -659,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -670,7 +700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1">
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -681,42 +711,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1"/>
-    <row r="15" spans="1:3" ht="24" customHeight="1"/>
-    <row r="16" spans="1:3" ht="24" customHeight="1"/>
-    <row r="17" ht="24" customHeight="1"/>
-    <row r="18" ht="24" customHeight="1"/>
-    <row r="19" ht="24" customHeight="1"/>
-    <row r="20" ht="24" customHeight="1"/>
-    <row r="21" ht="24" customHeight="1"/>
-    <row r="22" ht="24" customHeight="1"/>
-    <row r="23" ht="24" customHeight="1"/>
-    <row r="24" ht="24" customHeight="1"/>
-    <row r="25" ht="19.95" customHeight="1"/>
-    <row r="26" ht="19.95" customHeight="1"/>
-    <row r="27" ht="19.95" customHeight="1"/>
-    <row r="28" ht="19.95" customHeight="1"/>
-    <row r="29" ht="19.95" customHeight="1"/>
-    <row r="30" ht="19.95" customHeight="1"/>
-    <row r="31" ht="19.95" customHeight="1"/>
-    <row r="32" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEE702-8B54-414C-B855-DDA345631697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169F83A-CE05-AC44-995E-5BD11C434915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -137,13 +137,46 @@
     <t>Best Time to Buy And Sell Stock</t>
   </si>
   <si>
-    <t>track max profit ; update profit by checking against current max profit</t>
-  </si>
-  <si>
     <t>Longest Substring Without Repeating Characters</t>
   </si>
   <si>
     <t>track unique characters using a hashset;track longest substring count update by checking against self using hashset length; if already in remove increment left counter.</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>track max profit;update profit by checking against current max profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> look to find where the left number is smaller than the right, look for inconsistency</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>find the point where the array is shifted; then figure which half I need to search on; calculate boundaries for left and right indexes</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>store head next; current head's next point to previous</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
   </si>
 </sst>
 </file>
@@ -247,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -256,6 +289,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -575,7 +611,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,37 +766,78 @@
         <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169F83A-CE05-AC44-995E-5BD11C434915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11332D63-942A-44AA-BBFB-F88D023BD53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="21852" yWindow="0" windowWidth="19428" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -177,13 +177,40 @@
   </si>
   <si>
     <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>create blank list; iterate and compare list heads updating the next element;</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>iterate the linkedlist using fast and slow pointers; check to see if pointers ever overlap; update pointers and check equal</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Trees/Recursion</t>
+  </si>
+  <si>
+    <t>Trees/Recursion/DFS</t>
+  </si>
+  <si>
+    <t>swap left and right nodes using a DFS/recursive approach</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>recursively travel through tree updating the depth of right and left branches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,21 +259,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -280,16 +292,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,23 +619,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="186.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -648,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -659,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -681,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -692,8 +701,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -703,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -714,7 +723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -725,7 +734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -736,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -747,7 +756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -758,95 +767,132 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:3" ht="24" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" ht="24" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1"/>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11332D63-942A-44AA-BBFB-F88D023BD53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CABC2-F8A4-4E24-80A5-475C1D1E7530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21852" yWindow="0" windowWidth="19428" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -204,6 +204,30 @@
   </si>
   <si>
     <t>recursively travel through tree updating the depth of right and left branches</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>check node for null equality,one is null one isnt,val are not the same; recursively check (left &amp;right sides) through the tree</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>check node for null equality,one is null one isn't,same tree; recursively check if left branch or right branch is a subtree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>checking to see if treenode's value is inbetween value1 and value2; if not traverse down appropiate side of tree; if it is return the root treenoode</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
   </si>
 </sst>
 </file>
@@ -620,12 +644,12 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="54.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="186.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -875,10 +899,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1"/>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1"/>
+    <row r="24" spans="1:3" ht="24" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1"/>
     <row r="29" spans="1:3" ht="19.95" customHeight="1"/>
     <row r="30" spans="1:3" ht="19.95" customHeight="1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CABC2-F8A4-4E24-80A5-475C1D1E7530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC3419-CF8C-2042-8D94-ACFDC1F50656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21852" yWindow="0" windowWidth="19428" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -228,13 +228,25 @@
   </si>
   <si>
     <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>1-D Dynamic Programming</t>
+  </si>
+  <si>
+    <t>using bottom-up approach; set my base cases; then iterate filling out dp solutions array ; answer for current iteration is contingent on previous two iterations answers</t>
+  </si>
+  <si>
+    <t>House Robber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +295,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -316,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -325,6 +347,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -643,23 +667,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="186.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="186.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -670,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1">
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -681,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -692,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -703,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -714,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1">
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -725,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -736,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -747,7 +771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -758,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -769,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1">
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -780,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -791,7 +815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -802,7 +826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -813,7 +837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -822,7 +846,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -833,7 +857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -844,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -855,7 +879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -866,7 +890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -877,7 +901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -888,7 +912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -899,7 +923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -910,7 +934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -921,7 +945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -932,7 +956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -940,20 +964,37 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC3419-CF8C-2042-8D94-ACFDC1F50656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F3096-21D1-400F-A1D3-DA22DE5032C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>LeetCode Blind75</t>
   </si>
@@ -240,13 +240,52 @@
   </si>
   <si>
     <t>House Robber</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Trees/Breadth First Search</t>
+  </si>
+  <si>
+    <t>using a FIFO &lt;Treenode&gt;queue keep track of current level values and size of queue; add the current node values to current level list and add left and right nodes to queue if present</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Trees/Recurion</t>
+  </si>
+  <si>
+    <t>returning the result of a recursive validate function; taking/updating the upper and lower bounds to validate a treenode; max value on left nodes is the current and min val on right nodes is current</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Trees/Recursion/In Order Traversal</t>
+  </si>
+  <si>
+    <t>in order traverse through tree;add left most values then right most to list;</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Heap/PriorityQueue</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,17 +335,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri (Body)"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +366,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,10 +381,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -347,10 +396,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,23 +717,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="186.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="218.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -727,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -738,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -749,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -760,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -771,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -782,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -793,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -804,7 +854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -815,7 +865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -826,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -837,7 +887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -846,7 +896,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -857,7 +907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -868,7 +918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -879,7 +929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -890,7 +940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -901,7 +951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -912,7 +962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -923,7 +973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -934,7 +984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="19.95" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -945,7 +995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="19.95" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -956,45 +1006,91 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="19.95" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="19.95" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="36" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="37" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="38" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="39" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="40" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="41" spans="1:2" ht="19.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Blind75Notes.xlsx
+++ b/Blind75Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keanu\Desktop\Programing\Blind75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keanu/Desktop/Programming/Blind75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F3096-21D1-400F-A1D3-DA22DE5032C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6EAA7C-FDF8-D446-A29A-6D5431CFBF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{E1B74584-583F-9444-8CED-CEB40E695B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Product of Array Except Self</t>
   </si>
   <si>
-    <t>make two passes, from left then from right, to compute products</t>
-  </si>
-  <si>
     <t xml:space="preserve">Encode and Decode Strings </t>
   </si>
   <si>
@@ -279,13 +276,16 @@
   </si>
   <si>
     <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>create empty array to store and update values;make two passes, from left then from right, to compute products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -396,7 +396,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -717,23 +716,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5327056-F56C-9646-8CAD-3FA69CA8A264}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="218.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="218.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -744,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1">
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -755,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -777,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -788,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1">
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -799,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -807,290 +806,288 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.95" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="19.95" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.95" customHeight="1"/>
-    <row r="36" spans="1:2" ht="19.95" customHeight="1"/>
-    <row r="37" spans="1:2" ht="19.95" customHeight="1"/>
-    <row r="38" spans="1:2" ht="19.95" customHeight="1"/>
-    <row r="39" spans="1:2" ht="19.95" customHeight="1"/>
-    <row r="40" spans="1:2" ht="19.95" customHeight="1"/>
-    <row r="41" spans="1:2" ht="19.95" customHeight="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
